--- a/graph_generation/results_prelim/hermes_llama2/level_8/k_3.xlsx
+++ b/graph_generation/results_prelim/hermes_llama2/level_8/k_3.xlsx
@@ -33,7 +33,7 @@
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted directed graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
-Example 1: what is the least cost path from node A to node P? Return the sequence of nodes in response.
+Example 1: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 5 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
@@ -52,7 +52,7 @@
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
 Solution: No possible path from A to P
-Example 2: what is the least cost path from node A to node P? Return the sequence of nodes in response.
+Example 2: What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
  A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  B 5 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
@@ -71,7 +71,7 @@
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5
  P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
 Solution: No possible path from A to P
-Example 3: what is the least cost path from node A to node I? Return the sequence of nodes in response.
+Example 3: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
  A 0 1 0 3 0 0 0 0 0
  B 0 0 5 0 0 0 0 0 0
@@ -84,24 +84,24 @@
  I 0 0 0 0 0 3 0 0 0
 Solution: No possible path from A to I
  Given these examples, answer the following quesiton.
-what is the least cost path from node A to node P? Return the sequence of nodes in response.
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 2 0 0 2 0 2 0 0 2 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 2 0 0 5 0 0 0 0 0 0
  G 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0 0
- K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 5 0 0 4 0 0 0 0 4
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 3 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 5 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
     </t>
   </si>
   <si>
@@ -114,7 +114,7 @@
     <t>Wrong</t>
   </si>
   <si>
-    <t>1/1</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
